--- a/bin/setting.xlsx
+++ b/bin/setting.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>包名。Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>role1.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +529,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -544,7 +550,12 @@
       <c r="C1"/>
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="B2"/>
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
       <c r="C2"/>
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.3">

--- a/bin/setting.xlsx
+++ b/bin/setting.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>包名。Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,11 +91,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>role1.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>role</t>
+    <r>
+      <t>j</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ob,level,sub</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +120,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +147,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -170,6 +195,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +558,7 @@
   <dimension ref="A1:IV82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -542,19 +570,21 @@
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1"/>
+      <c r="C1" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2"/>
     </row>

--- a/bin/setting.xlsx
+++ b/bin/setting.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>包名。Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role1.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -113,6 +109,22 @@
       </rPr>
       <t>ob,level,sub</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>role.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,9 +569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -570,18 +580,18 @@
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -1253,7 +1263,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1264,8 +1274,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>

--- a/bin/setting.xlsx
+++ b/bin/setting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="6870" windowWidth="24795" windowHeight="7320" activeTab="1"/>
+    <workbookView xWindow="8445" yWindow="1335" windowWidth="24795" windowHeight="7320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="enum" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="159">
   <si>
     <t>包名。Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,44 +59,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ConfigType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigTypeGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout.layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./export/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ConfigType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigTypeGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layout.layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./export/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>j</t>
+      <t>n</t>
     </r>
     <r>
       <rPr>
@@ -107,24 +107,560 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ob,level,sub</t>
+      <t>ative.xlsx</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>check.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>check</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>role.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guild.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guild</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_type,level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mesh.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talentsort.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talentsort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapspawnpoint.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapspawnpoint</t>
+  </si>
+  <si>
+    <t>propertypools.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>propertypools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>property_id,num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopgoods.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopgoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingmesh.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingcurvemesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_id,cvs,hts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buildingmesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipgroup.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equipgroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>group_id,count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgeformula.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forgeformula</t>
+  </si>
+  <si>
+    <t>AttributeRole.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttributeRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobAttrTemplate,Level</t>
+  </si>
+  <si>
+    <t>ValueConvert.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValueConvert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobAttrTemplate,ConvertedAttritube</t>
+  </si>
+  <si>
+    <t>AbilityValue.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillID,SkillLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityDataTable.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityDataTable</t>
+  </si>
+  <si>
+    <t>BuffValue.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffID,BufflLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterAttribute.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterGrowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpecialMonster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentUpgrade.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentUpgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talent_id,talent_level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentValue.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentDataTable.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentDataTable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trippoints.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trippoints</t>
+  </si>
+  <si>
+    <t>AbilityUpgrade.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AbilityUpgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ability_id,AbilityLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForbidenBuildingArea.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForbidenBuildingArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForgeList.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForgeList</t>
+  </si>
+  <si>
+    <t>jobs.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planjobs.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>planjobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mount.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mount</t>
+  </si>
+  <si>
+    <t>pathpoints.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pathpoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routes.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>routes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>questcomplete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestId,SubQuestId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestige.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestige</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestigelist.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestigelist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CampRelation.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>host,guest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestigeInitial.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrestigeInit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role,camp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formula.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evil.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeskill.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lifeskill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life_skill,level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doodad.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doodad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formulalist.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formulalist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fly.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>StartFly_ID,DestinationFly_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dialogue</t>
+  </si>
+  <si>
+    <t>doodadInit</t>
+  </si>
+  <si>
+    <t>dropgroup.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropgroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleJob.xlsx</t>
+  </si>
+  <si>
+    <t>RoleJob</t>
+  </si>
+  <si>
+    <t>IllustrationTable.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IllustrationTable</t>
+  </si>
+  <si>
+    <t>money.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemprestige.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_prestige</t>
+  </si>
+  <si>
+    <t>collectskillfix.xlsx</t>
+  </si>
+  <si>
+    <t>collectskillfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishskillfix.xlsx</t>
+  </si>
+  <si>
+    <t>fishskillfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodskillfix.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodskillfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>monster.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +726,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -203,13 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,9 +1071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -553,10 +1085,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -569,7 +1109,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
@@ -580,26 +1122,27 @@
   <sheetData>
     <row r="1" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2"/>
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="C3" s="5"/>
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -855,245 +1398,537 @@
       <c r="IV3" s="2"/>
     </row>
     <row r="4" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="C4"/>
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="A5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="B6"/>
-      <c r="C6"/>
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="B7"/>
-      <c r="C7"/>
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
-      <c r="C8"/>
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
-      <c r="C9"/>
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="10" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="C10"/>
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="C11"/>
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="12" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="A14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="16" spans="1:256" x14ac:dyDescent="0.3">
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18"/>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23"/>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24"/>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25"/>
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26"/>
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27"/>
-      <c r="C27"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28"/>
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29"/>
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30"/>
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31"/>
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32"/>
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33"/>
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34"/>
-      <c r="C34"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35"/>
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36"/>
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37"/>
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38"/>
-      <c r="C38"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39"/>
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40"/>
-      <c r="C40"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41"/>
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42"/>
-      <c r="C42"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43"/>
-      <c r="C43"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44"/>
-      <c r="C44"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45"/>
-      <c r="C45"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46"/>
-      <c r="C46"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47"/>
-      <c r="C47"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48"/>
-      <c r="C48"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49"/>
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50"/>
-      <c r="C50"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51"/>
-      <c r="C51"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52"/>
-      <c r="C52"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53"/>
-      <c r="C53"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54"/>
-      <c r="C54"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55"/>
-      <c r="C55"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56"/>
-      <c r="C56"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57"/>
-      <c r="C57"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58"/>
-      <c r="C58"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59"/>
-      <c r="C59"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60"/>
-      <c r="C60"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61"/>
-      <c r="C61"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62"/>
-      <c r="C62"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63"/>
-      <c r="C63"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64"/>
-      <c r="C64"/>
+      <c r="A16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65"/>
@@ -1222,7 +2057,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1230,7 +2065,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -1238,17 +2073,17 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1275,10 +2110,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">

--- a/bin/setting.xlsx
+++ b/bin/setting.xlsx
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>item.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,72 +591,77 @@
     <t>Dialogue</t>
   </si>
   <si>
+    <t>dropgroup.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropgroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleJob.xlsx</t>
+  </si>
+  <si>
+    <t>RoleJob</t>
+  </si>
+  <si>
+    <t>IllustrationTable.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IllustrationTable</t>
+  </si>
+  <si>
+    <t>money.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemprestige.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_prestige</t>
+  </si>
+  <si>
+    <t>collectskillfix.xlsx</t>
+  </si>
+  <si>
+    <t>collectskillfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishskillfix.xlsx</t>
+  </si>
+  <si>
+    <t>fishskillfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodskillfix.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foodskillfix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>doodadInit</t>
-  </si>
-  <si>
-    <t>dropgroup.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropgroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleJob.xlsx</t>
-  </si>
-  <si>
-    <t>RoleJob</t>
-  </si>
-  <si>
-    <t>IllustrationTable.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IllustrationTable</t>
-  </si>
-  <si>
-    <t>money.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>itemprestige.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_prestige</t>
-  </si>
-  <si>
-    <t>collectskillfix.xlsx</t>
-  </si>
-  <si>
-    <t>collectskillfix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fishskillfix.xlsx</t>
-  </si>
-  <si>
-    <t>fishskillfix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodskillfix.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foodskillfix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster.xlsx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1109,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1125,23 +1126,23 @@
         <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -1399,535 +1400,535 @@
     </row>
     <row r="4" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:256" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
